--- a/MainTop/19.12.2025 Таня Озон/объединенный_отчет_с_местом_updated.xlsx
+++ b/MainTop/19.12.2025 Таня Озон/объединенный_отчет_с_местом_updated.xlsx
@@ -5,17 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\19.12.2025 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\19.12.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD6A95C-C9FF-460E-8B02-08B9ED903C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C4F7D-BABD-4A3C-B3CA-601523D2EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -843,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -851,7 +862,7 @@
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="26.140625" customWidth="1"/>
   </cols>
@@ -2760,6 +2771,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>